--- a/data/trans_orig/P02E$contratada-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF847FBA-1FCC-404B-8162-E4206648E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FB1540-FBC6-480C-B2DF-EF882194BA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCB04EA0-1488-494C-9B6B-BC340119C283}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{48B82661-0FBD-4502-99CE-30E7E68F8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="584">
-  <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="657">
+  <si>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -61,7 +61,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Persona contratada</t>
@@ -148,7 +148,7 @@
     <t>98,79%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,61%</t>
@@ -235,7 +235,7 @@
     <t>90,55%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -328,7 +328,7 @@
     <t>94,85%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -418,7 +418,7 @@
     <t>97,01%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -487,594 +487,654 @@
     <t>97,55%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2012</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
     <t>85,72%</t>
   </si>
   <si>
@@ -1084,673 +1144,832 @@
     <t>91,25%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2016</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
   </si>
   <si>
     <t>11,29%</t>
@@ -2201,8 +2420,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE7A77-B60F-4D53-A598-4A4DAF486C14}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE5238-0053-4AAB-BE27-D422D05AEFEF}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2962,28 +3181,28 @@
         <v>150</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2992,31 +3211,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3025,31 +3244,31 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3058,66 +3277,66 @@
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3126,31 +3345,31 @@
         <v>14</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3159,31 +3378,31 @@
         <v>19</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3192,45 +3411,180 @@
         <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J31" s="7" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="G33" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -3243,8 +3597,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014939E6-ABDC-40D5-A6C2-FEC255EF71B8}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA114A20-3C51-40A5-B223-0FE954027A95}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3260,7 +3614,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3346,7 +3700,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>9</v>
@@ -3355,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3364,31 +3718,31 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3397,31 +3751,31 @@
         <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3430,31 +3784,31 @@
         <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3471,22 +3825,22 @@
         <v>46</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>40</v>
@@ -3504,25 +3858,25 @@
         <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3531,31 +3885,31 @@
         <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>138</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3564,28 +3918,28 @@
         <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>146</v>
@@ -3599,31 +3953,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3632,28 +3986,28 @@
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>102</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>77</v>
@@ -3665,31 +4019,31 @@
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3698,31 +4052,31 @@
         <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3733,31 +4087,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3766,13 +4120,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>102</v>
@@ -3781,16 +4135,16 @@
         <v>9</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3799,31 +4153,31 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3832,31 +4186,31 @@
         <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3873,25 +4227,25 @@
         <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3900,31 +4254,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3933,28 +4287,28 @@
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>333</v>
+        <v>180</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>54</v>
@@ -3966,31 +4320,31 @@
         <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -4001,31 +4355,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -4034,31 +4388,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -4067,31 +4421,31 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -4100,66 +4454,66 @@
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>385</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -4168,31 +4522,31 @@
         <v>14</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>388</v>
+        <v>9</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>244</v>
+        <v>409</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>215</v>
+        <v>410</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -4201,31 +4555,31 @@
         <v>19</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -4234,45 +4588,180 @@
         <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>213</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -4285,8 +4774,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D8F79A-D249-4EE9-AA62-9017EC243D80}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A356D5-200E-4FB9-A39B-2C247B31B3A4}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4302,7 +4791,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4379,7 +4868,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
@@ -4388,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>9</v>
@@ -4397,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4406,13 +4895,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>9</v>
@@ -4421,10 +4910,10 @@
         <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>9</v>
@@ -4439,31 +4928,31 @@
         <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4472,31 +4961,31 @@
         <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4507,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>9</v>
@@ -4522,16 +5011,16 @@
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4540,13 +5029,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -4555,16 +5044,16 @@
         <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4573,31 +5062,31 @@
         <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4606,31 +5095,31 @@
         <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4641,31 +5130,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>459</v>
+        <v>157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4683,13 +5172,13 @@
         <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>74</v>
@@ -4698,7 +5187,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4707,31 +5196,31 @@
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4740,31 +5229,31 @@
         <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4775,31 +5264,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4814,16 +5303,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>107</v>
@@ -4832,7 +5321,7 @@
         <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4841,31 +5330,31 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>131</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4874,31 +5363,31 @@
         <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4909,31 +5398,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4942,31 +5431,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -4975,31 +5464,31 @@
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5008,31 +5497,31 @@
         <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5043,31 +5532,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>457</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>531</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>398</v>
+        <v>581</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>534</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5076,31 +5565,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>537</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>9</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5109,31 +5598,31 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>366</v>
+        <v>590</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>544</v>
+        <v>9</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>546</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5142,66 +5631,66 @@
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>558</v>
+        <v>9</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>270</v>
+        <v>610</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>563</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5210,31 +5699,31 @@
         <v>14</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>565</v>
+        <v>612</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>566</v>
+        <v>9</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>417</v>
+        <v>613</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>112</v>
+        <v>358</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5243,31 +5732,31 @@
         <v>19</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>568</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>357</v>
+        <v>616</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>570</v>
+        <v>617</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>574</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5276,45 +5765,180 @@
         <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>577</v>
+        <v>624</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>213</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
